--- a/data/trans_orig/P1805-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8823CDF-31E4-46CF-B4C7-6546B5160080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DCF7D0-0FEA-4EBB-A6AF-A2D8A2F8CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3EED15E-A9B5-4F42-A4D6-898196FDFD36}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0D2C6DB-F19E-4DA7-B84D-5DD2F3A859CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -78,610 +78,595 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>7,77%</t>
+    <t>8,65%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>92,94%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>3,8%</t>
@@ -690,25 +675,22 @@
     <t>3,33%</t>
   </si>
   <si>
-    <t>4,31%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>95,69%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -1123,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ED2190-7C20-4E6F-A873-2BE37BC253AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3125F6BB-DF9C-49E4-9EF3-E90BD50AF65B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2058,7 +2040,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2055,13 @@
         <v>3333287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3221</v>
@@ -2088,13 +2070,13 @@
         <v>3413603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6393</v>
@@ -2103,13 +2085,13 @@
         <v>6746890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2147,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15E326D-9093-48B3-A66B-8481558DDD0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0CF871-3670-4515-B5C1-4FC8EF6513DE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2203,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2310,13 +2292,13 @@
         <v>831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2325,13 +2307,13 @@
         <v>2707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2340,13 +2322,13 @@
         <v>3538</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2343,13 @@
         <v>101151</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>237</v>
@@ -2376,13 +2358,13 @@
         <v>128026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -2391,13 +2373,13 @@
         <v>229177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2447,13 @@
         <v>16058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2480,10 +2462,10 @@
         <v>15435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>148</v>
@@ -2495,13 +2477,13 @@
         <v>31493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,10 +2498,10 @@
         <v>533765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>153</v>
@@ -2537,7 +2519,7 @@
         <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1565</v>
@@ -2546,7 +2528,7 @@
         <v>1111292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>157</v>
@@ -2638,10 +2620,10 @@
         <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -2650,10 +2632,10 @@
         <v>60979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>166</v>
@@ -2692,7 +2674,7 @@
         <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>2408</v>
@@ -2701,13 +2683,13 @@
         <v>2037743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2757,13 @@
         <v>27493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2790,13 +2772,13 @@
         <v>42603</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2805,13 +2787,13 @@
         <v>70095</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2808,13 @@
         <v>701279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>999</v>
@@ -2841,13 +2823,13 @@
         <v>831143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>1655</v>
@@ -2856,13 +2838,13 @@
         <v>1532423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2912,13 @@
         <v>47943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -2945,13 +2927,13 @@
         <v>58917</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -2960,13 +2942,13 @@
         <v>106860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2963,13 @@
         <v>917460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>1488</v>
@@ -2996,13 +2978,13 @@
         <v>1090789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>2452</v>
@@ -3011,13 +2993,13 @@
         <v>2008249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3067,13 @@
         <v>114547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>209</v>
@@ -3100,13 +3082,13 @@
         <v>158418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>304</v>
@@ -3115,13 +3097,13 @@
         <v>272965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3118,13 @@
         <v>3270681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>5153</v>
@@ -3151,13 +3133,13 @@
         <v>3648204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>8434</v>
@@ -3166,13 +3148,13 @@
         <v>6918885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3210,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DCF7D0-0FEA-4EBB-A6AF-A2D8A2F8CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB41E0BB-7978-48B8-9C95-D525D6BF1D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0D2C6DB-F19E-4DA7-B84D-5DD2F3A859CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF98030A-2D4C-4364-ADC1-882BD78BB70B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="219">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="207">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,28 +75,28 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,34 +105,34 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -141,31 +141,28 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>4,21%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -174,97 +171,88 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,79%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -273,31 +261,31 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>3,0%</t>
+    <t>3,08%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>97,0%</t>
+    <t>96,92%</t>
   </si>
   <si>
     <t>98,49%</t>
@@ -309,25 +297,25 @@
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>5,14%</t>
@@ -336,19 +324,19 @@
     <t>97,25%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -357,246 +345,228 @@
     <t>94,86%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
     <t>95,63%</t>
   </si>
   <si>
@@ -618,9 +588,6 @@
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
@@ -646,9 +613,6 @@
   </si>
   <si>
     <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
   </si>
   <si>
     <t>94,95%</t>
@@ -1105,7 +1069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3125F6BB-DF9C-49E4-9EF3-E90BD50AF65B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E85015A-9A20-4ABE-AF8D-D0395CC655E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1402,10 +1366,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1414,13 +1378,13 @@
         <v>19356</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,13 +1399,13 @@
         <v>553161</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>539</v>
@@ -1450,13 +1414,13 @@
         <v>545217</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -1465,13 +1429,13 @@
         <v>1098377</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,7 +1491,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1539,13 +1503,13 @@
         <v>16424</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -1554,13 +1518,13 @@
         <v>34487</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -1569,13 +1533,13 @@
         <v>50911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,13 +1554,13 @@
         <v>1006007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>946</v>
@@ -1605,13 +1569,13 @@
         <v>1008426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1881</v>
@@ -1620,13 +1584,13 @@
         <v>2014433</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,7 +1646,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1694,13 +1658,13 @@
         <v>10476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -1709,13 +1673,13 @@
         <v>22967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -1724,13 +1688,13 @@
         <v>33443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1709,13 @@
         <v>749076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>714</v>
@@ -1760,13 +1724,13 @@
         <v>762044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1400</v>
@@ -1775,13 +1739,13 @@
         <v>1511120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,7 +1801,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1849,13 +1813,13 @@
         <v>25756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -1864,13 +1828,13 @@
         <v>54794</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -1879,13 +1843,13 @@
         <v>80550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1864,13 @@
         <v>911811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>911</v>
@@ -1915,13 +1879,13 @@
         <v>988985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1818</v>
@@ -1930,13 +1894,13 @@
         <v>1900796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +1968,13 @@
         <v>61063</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -2019,13 +1983,13 @@
         <v>130939</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>176</v>
@@ -2034,13 +1998,13 @@
         <v>192002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2019,13 @@
         <v>3333287</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>3221</v>
@@ -2070,13 +2034,13 @@
         <v>3413603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>6393</v>
@@ -2085,13 +2049,13 @@
         <v>6746890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2111,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0CF871-3670-4515-B5C1-4FC8EF6513DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6010812-DAAC-4FDB-8C28-44E2B542581A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2185,7 +2149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2292,13 +2256,13 @@
         <v>831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2307,13 +2271,13 @@
         <v>2707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2322,13 +2286,13 @@
         <v>3538</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2307,13 @@
         <v>101151</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>237</v>
@@ -2358,13 +2322,13 @@
         <v>128026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>354</v>
@@ -2373,13 +2337,13 @@
         <v>229177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2411,13 @@
         <v>16058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2462,13 +2426,13 @@
         <v>15435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -2477,13 +2441,13 @@
         <v>31493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2462,13 @@
         <v>533765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>967</v>
@@ -2513,13 +2477,13 @@
         <v>577527</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1565</v>
@@ -2528,13 +2492,13 @@
         <v>1111292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2554,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2602,13 +2566,13 @@
         <v>22223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -2617,13 +2581,13 @@
         <v>38756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -2632,13 +2596,13 @@
         <v>60979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2617,13 @@
         <v>1017025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>1462</v>
@@ -2668,13 +2632,13 @@
         <v>1020718</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>2408</v>
@@ -2683,13 +2647,13 @@
         <v>2037743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2709,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2721,13 @@
         <v>27493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2772,13 +2736,13 @@
         <v>42603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2787,13 +2751,13 @@
         <v>70095</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2772,13 @@
         <v>701279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>999</v>
@@ -2823,13 +2787,13 @@
         <v>831143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>1655</v>
@@ -2838,13 +2802,13 @@
         <v>1532423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2864,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2912,13 +2876,13 @@
         <v>47943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -2927,13 +2891,13 @@
         <v>58917</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -2942,13 +2906,13 @@
         <v>106860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2927,13 @@
         <v>917460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>1488</v>
@@ -2978,13 +2942,13 @@
         <v>1090789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>2452</v>
@@ -2993,13 +2957,13 @@
         <v>2008249</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3031,13 @@
         <v>114547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>209</v>
@@ -3082,13 +3046,13 @@
         <v>158418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>304</v>
@@ -3097,13 +3061,13 @@
         <v>272965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3082,13 @@
         <v>3270681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>5153</v>
@@ -3133,13 +3097,13 @@
         <v>3648204</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>8434</v>
@@ -3148,13 +3112,13 @@
         <v>6918885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3174,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1805-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Habitat-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB41E0BB-7978-48B8-9C95-D525D6BF1D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F35CF7B-B05B-4F0D-81FB-D9A371B4D0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF98030A-2D4C-4364-ADC1-882BD78BB70B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6398D229-FCD0-44B7-AFD2-FE6F633569E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,117 +39,288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="282">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>&lt;2.000hab</t>
+  </si>
+  <si>
+    <t>991.0</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>4,21%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -156,91 +329,94 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,79%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>97,24%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>2,44%</t>
@@ -249,19 +425,19 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>98,62%</t>
@@ -270,109 +446,112 @@
     <t>97,56%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
+    <t>3,07%</t>
+  </si>
+  <si>
     <t>4,4%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>96,31%</t>
@@ -381,280 +560,328 @@
     <t>95,6%</t>
   </si>
   <si>
+    <t>96,93%</t>
+  </si>
+  <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>97,63%</t>
   </si>
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>5,19%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>95,63%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>6,57%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>96,67%</t>
@@ -1069,8 +1296,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E85015A-9A20-4ABE-AF8D-D0395CC655E6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3535CD7A-5DC8-4791-918A-D0E1A942B364}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1187,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>3313</v>
+        <v>115358</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1202,550 +1429,548 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7">
-        <v>4429</v>
+        <v>112755</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>233</v>
+      </c>
+      <c r="N4" s="7">
+        <v>228113</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7742</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>110</v>
-      </c>
-      <c r="D5" s="7">
-        <v>113233</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>111</v>
-      </c>
-      <c r="I5" s="7">
-        <v>108931</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>221</v>
-      </c>
-      <c r="N5" s="7">
-        <v>222164</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>113</v>
-      </c>
-      <c r="D6" s="7">
-        <v>116546</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>115</v>
-      </c>
-      <c r="I6" s="7">
-        <v>113360</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>228</v>
-      </c>
-      <c r="N6" s="7">
-        <v>229906</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>105</v>
+      </c>
+      <c r="D7" s="7">
+        <v>115358</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>128</v>
+      </c>
+      <c r="I7" s="7">
+        <v>112755</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>233</v>
+      </c>
+      <c r="N7" s="7">
+        <v>228113</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5093</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14262</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="7">
-        <v>17</v>
-      </c>
-      <c r="N7" s="7">
-        <v>19356</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="D8" s="7">
-        <v>553161</v>
+        <v>578654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="I8" s="7">
-        <v>545217</v>
+        <v>575596</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1073</v>
+        <v>1146</v>
       </c>
       <c r="N8" s="7">
-        <v>1098377</v>
+        <v>1154250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>16424</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>34487</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>50911</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>935</v>
+        <v>578</v>
       </c>
       <c r="D11" s="7">
-        <v>1006007</v>
+        <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>946</v>
+        <v>568</v>
       </c>
       <c r="I11" s="7">
-        <v>1008426</v>
+        <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1881</v>
+        <v>1146</v>
       </c>
       <c r="N11" s="7">
-        <v>2014433</v>
+        <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>896</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>908</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1804</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>10476</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>22967</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>33443</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>749076</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>762044</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1511120</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,386 +1979,694 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>896</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>908</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>641</v>
       </c>
       <c r="D16" s="7">
-        <v>25756</v>
+        <v>678509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>696</v>
       </c>
       <c r="I16" s="7">
-        <v>54794</v>
+        <v>683841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>73</v>
+        <v>1337</v>
       </c>
       <c r="N16" s="7">
-        <v>80550</v>
+        <v>1362350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>907</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>911811</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>988985</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M17" s="7">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>1900796</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>932</v>
-      </c>
-      <c r="D18" s="7">
-        <v>937567</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>959</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1043779</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1981346</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="7">
+        <v>641</v>
+      </c>
+      <c r="D19" s="7">
+        <v>678509</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>696</v>
+      </c>
+      <c r="I19" s="7">
+        <v>683841</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1362350</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7">
-        <v>61063</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="7">
-        <v>117</v>
-      </c>
-      <c r="I19" s="7">
-        <v>130939</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>176</v>
-      </c>
-      <c r="N19" s="7">
-        <v>192002</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C20" s="7">
-        <v>3172</v>
+        <v>994</v>
       </c>
       <c r="D20" s="7">
-        <v>3333287</v>
+        <v>942222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>3221</v>
+        <v>997</v>
       </c>
       <c r="I20" s="7">
-        <v>3413603</v>
+        <v>1038612</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>6393</v>
+        <v>1991</v>
       </c>
       <c r="N20" s="7">
-        <v>6746890</v>
+        <v>1980834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="C23" s="7">
+        <v>994</v>
+      </c>
+      <c r="D23" s="7">
+        <v>942222</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>997</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1038612</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1991</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1980834</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3276544</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3379198</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6655740</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6010812-DAAC-4FDB-8C28-44E2B542581A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2DEC3-024F-4806-BF37-03AC34A216FF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2149,7 +2682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2250,565 +2783,563 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>831</v>
+        <v>115765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>2707</v>
+        <v>111905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="N4" s="7">
-        <v>3538</v>
+        <v>227670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>101151</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>128026</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>229177</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>118</v>
-      </c>
-      <c r="D6" s="7">
-        <v>101982</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>243</v>
-      </c>
-      <c r="I6" s="7">
-        <v>130733</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>361</v>
-      </c>
-      <c r="N6" s="7">
-        <v>232715</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7">
+        <v>122</v>
+      </c>
+      <c r="D7" s="7">
+        <v>115765</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>111905</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>221</v>
+      </c>
+      <c r="N7" s="7">
+        <v>227670</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7">
-        <v>16058</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="7">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7">
-        <v>15435</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="7">
-        <v>43</v>
-      </c>
-      <c r="N7" s="7">
-        <v>31493</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="7">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="D8" s="7">
-        <v>533765</v>
+        <v>587704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>967</v>
+        <v>551</v>
       </c>
       <c r="I8" s="7">
-        <v>577527</v>
+        <v>585145</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1565</v>
+        <v>1103</v>
       </c>
       <c r="N8" s="7">
-        <v>1111292</v>
+        <v>1172849</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>22223</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>38756</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>60979</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>946</v>
+        <v>552</v>
       </c>
       <c r="D11" s="7">
-        <v>1017025</v>
+        <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>1462</v>
+        <v>551</v>
       </c>
       <c r="I11" s="7">
-        <v>1020718</v>
+        <v>585145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>2408</v>
+        <v>1103</v>
       </c>
       <c r="N11" s="7">
-        <v>2037743</v>
+        <v>1172849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>940</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>1032184</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1876</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>2050131</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>27493</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>42603</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>70095</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>701279</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>831143</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1532423</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,378 +3348,3424 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>936</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>1017947</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1032184</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>1602518</v>
+        <v>2050131</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>689</v>
       </c>
       <c r="D16" s="7">
-        <v>47943</v>
+        <v>757623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>73</v>
+        <v>705</v>
       </c>
       <c r="I16" s="7">
-        <v>58917</v>
+        <v>777174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>115</v>
+        <v>1394</v>
       </c>
       <c r="N16" s="7">
-        <v>106860</v>
+        <v>1534797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>917460</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7">
-        <v>1488</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1090789</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
-        <v>2452</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>2008249</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>1006</v>
-      </c>
-      <c r="D18" s="7">
-        <v>965403</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1561</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1149706</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2567</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2115109</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="7">
+        <v>689</v>
+      </c>
+      <c r="D19" s="7">
+        <v>757623</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>705</v>
+      </c>
+      <c r="I19" s="7">
+        <v>777174</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1394</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1534797</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>114547</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="7">
-        <v>209</v>
-      </c>
-      <c r="I19" s="7">
-        <v>158418</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="7">
-        <v>304</v>
-      </c>
-      <c r="N19" s="7">
-        <v>272965</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C20" s="7">
-        <v>3281</v>
+        <v>910</v>
       </c>
       <c r="D20" s="7">
-        <v>3270681</v>
+        <v>947739</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>5153</v>
+        <v>1003</v>
       </c>
       <c r="I20" s="7">
-        <v>3648204</v>
+        <v>1051901</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>8434</v>
+        <v>1913</v>
       </c>
       <c r="N20" s="7">
-        <v>6918885</v>
+        <v>1999640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3806622</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8738</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7191850</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="C23" s="7">
+        <v>910</v>
+      </c>
+      <c r="D23" s="7">
+        <v>947739</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1003</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1051901</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1913</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1999640</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74414FB5-B34D-486C-B13E-D54E5E1EA431}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3313</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4429</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7742</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>110</v>
+      </c>
+      <c r="D6" s="7">
+        <v>113233</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="7">
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>108931</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="7">
+        <v>221</v>
+      </c>
+      <c r="N6" s="7">
+        <v>222164</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>113</v>
+      </c>
+      <c r="D7" s="7">
+        <v>116546</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>115</v>
+      </c>
+      <c r="I7" s="7">
+        <v>113360</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>228</v>
+      </c>
+      <c r="N7" s="7">
+        <v>229906</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5093</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="7">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7">
+        <v>14262</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="7">
+        <v>17</v>
+      </c>
+      <c r="N9" s="7">
+        <v>19356</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>534</v>
+      </c>
+      <c r="D10" s="7">
+        <v>553161</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="7">
+        <v>539</v>
+      </c>
+      <c r="I10" s="7">
+        <v>545217</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1073</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1098377</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>539</v>
+      </c>
+      <c r="D11" s="7">
+        <v>558254</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>551</v>
+      </c>
+      <c r="I11" s="7">
+        <v>559479</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1090</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1117733</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16424</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="7">
+        <v>31</v>
+      </c>
+      <c r="I13" s="7">
+        <v>34487</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="7">
+        <v>47</v>
+      </c>
+      <c r="N13" s="7">
+        <v>50911</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>935</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1006007</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="7">
+        <v>946</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1008426</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1881</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2014433</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>951</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1022431</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>977</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1042913</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1928</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2065344</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10476</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="7">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22967</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="7">
+        <v>32</v>
+      </c>
+      <c r="N17" s="7">
+        <v>33443</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>686</v>
+      </c>
+      <c r="D18" s="7">
+        <v>749076</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="7">
+        <v>714</v>
+      </c>
+      <c r="I18" s="7">
+        <v>762044</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1400</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1511120</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>696</v>
+      </c>
+      <c r="D19" s="7">
+        <v>759552</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>736</v>
+      </c>
+      <c r="I19" s="7">
+        <v>785011</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1432</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1544563</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7">
+        <v>25756</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="7">
+        <v>48</v>
+      </c>
+      <c r="I21" s="7">
+        <v>54794</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="7">
+        <v>73</v>
+      </c>
+      <c r="N21" s="7">
+        <v>80550</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>907</v>
+      </c>
+      <c r="D22" s="7">
+        <v>911811</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="7">
+        <v>911</v>
+      </c>
+      <c r="I22" s="7">
+        <v>988985</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1818</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1900796</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>932</v>
+      </c>
+      <c r="D23" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>959</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1043779</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1891</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1981346</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7">
+        <v>61063</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="7">
+        <v>117</v>
+      </c>
+      <c r="I25" s="7">
+        <v>130939</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="7">
+        <v>176</v>
+      </c>
+      <c r="N25" s="7">
+        <v>192002</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3172</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3333287</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3221</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3413603</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6393</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6746890</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A911CDB-0DEA-4D50-BC51-546CDBFCC3EE}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>831</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2707</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3538</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>117</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101151</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7">
+        <v>237</v>
+      </c>
+      <c r="I6" s="7">
+        <v>128026</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="7">
+        <v>354</v>
+      </c>
+      <c r="N6" s="7">
+        <v>229177</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>118</v>
+      </c>
+      <c r="D7" s="7">
+        <v>101982</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>243</v>
+      </c>
+      <c r="I7" s="7">
+        <v>130733</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>361</v>
+      </c>
+      <c r="N7" s="7">
+        <v>232715</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16058</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="7">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15435</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" s="7">
+        <v>43</v>
+      </c>
+      <c r="N9" s="7">
+        <v>31493</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>598</v>
+      </c>
+      <c r="D10" s="7">
+        <v>533765</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="7">
+        <v>967</v>
+      </c>
+      <c r="I10" s="7">
+        <v>577527</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1565</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1111292</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>612</v>
+      </c>
+      <c r="D11" s="7">
+        <v>549823</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>996</v>
+      </c>
+      <c r="I11" s="7">
+        <v>592962</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1608</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1142785</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>22223</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="7">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7">
+        <v>38756</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60979</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>946</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1017025</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1462</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1020718</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2408</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2037743</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>964</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1039248</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1516</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1059474</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2098722</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27493</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="7">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42603</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M17" s="7">
+        <v>67</v>
+      </c>
+      <c r="N17" s="7">
+        <v>70095</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>656</v>
+      </c>
+      <c r="D18" s="7">
+        <v>701279</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H18" s="7">
+        <v>999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>831143</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1655</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1532423</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>676</v>
+      </c>
+      <c r="D19" s="7">
+        <v>728772</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1046</v>
+      </c>
+      <c r="I19" s="7">
+        <v>873746</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1722</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1602518</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7">
+        <v>47943</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="7">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7">
+        <v>58917</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M21" s="7">
+        <v>115</v>
+      </c>
+      <c r="N21" s="7">
+        <v>106860</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>964</v>
+      </c>
+      <c r="D22" s="7">
+        <v>917460</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1488</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1090789</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2452</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2008249</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1006</v>
+      </c>
+      <c r="D23" s="7">
+        <v>965403</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1561</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1149706</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2567</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2115109</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>114547</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="7">
+        <v>209</v>
+      </c>
+      <c r="I25" s="7">
+        <v>158418</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" s="7">
+        <v>304</v>
+      </c>
+      <c r="N25" s="7">
+        <v>272965</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3281</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3270681</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5153</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3648204</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8434</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6918885</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3385228</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5362</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3806622</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8738</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7191850</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1805-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1805-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F35CF7B-B05B-4F0D-81FB-D9A371B4D0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF3C3681-4949-4E12-910F-A9B514516815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6398D229-FCD0-44B7-AFD2-FE6F633569E8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F3FBCDA5-50AE-4F41-881E-01576DB71D18}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="227">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>991.0</t>
@@ -77,814 +77,649 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un psicologo o psicoterapeuta en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>96,98%</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3535CD7A-5DC8-4791-918A-D0E1A942B364}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD932BB-530A-4526-A3A6-3DA506C595F1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1414,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1429,31 +1264,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1462,7 +1297,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1471,49 +1306,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1522,43 +1357,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1582,10 +1417,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1597,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1614,52 +1449,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1668,7 +1503,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1677,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1692,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1707,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1728,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1743,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1758,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1788,10 +1623,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1803,10 +1638,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1820,52 +1655,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1874,7 +1709,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1883,29 +1718,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1913,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1934,29 +1769,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -1964,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1994,10 +1829,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2009,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2026,52 +1861,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2080,7 +1915,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2089,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2104,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2119,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2140,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2155,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2170,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -2200,10 +2035,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -2215,10 +2050,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2232,52 +2067,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2286,7 +2121,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2295,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2310,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2325,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2346,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2361,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2376,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,10 +2226,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2406,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2421,10 +2256,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2437,222 +2272,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2665,8 +2293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2DEC3-024F-4806-BF37-03AC34A216FF}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD2FEF6-7E6A-4A97-8DC9-5E0854A3B7B7}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2682,7 +2310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2783,46 +2411,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2831,7 +2459,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2840,14 +2468,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2855,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2870,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2891,14 +2519,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2906,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2921,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2951,10 +2579,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2966,10 +2594,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -2983,52 +2611,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -3037,7 +2665,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3046,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3061,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3076,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3097,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3112,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3127,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -3157,10 +2785,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3172,10 +2800,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -3189,52 +2817,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -3243,7 +2871,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3252,14 +2880,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3267,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3282,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3303,14 +2931,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3318,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3333,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3363,10 +2991,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3378,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3395,52 +3023,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D16" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3449,7 +3077,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3458,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3473,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3488,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3509,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3524,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3539,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -3569,10 +3197,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -3584,10 +3212,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -3601,52 +3229,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I20" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N20" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -3655,7 +3283,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3664,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3679,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3694,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3715,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3730,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3745,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3388,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -3775,10 +3403,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -3790,10 +3418,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -3806,222 +3434,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4034,8 +3455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74414FB5-B34D-486C-B13E-D54E5E1EA431}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C86010C-E7F8-4457-9D30-3625AF84FB60}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4051,7 +3472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4158,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4173,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4188,115 +3609,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>3313</v>
+        <v>8407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>4429</v>
+        <v>18691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>7742</v>
+        <v>27098</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>110</v>
+        <v>644</v>
       </c>
       <c r="D6" s="7">
-        <v>113233</v>
+        <v>666393</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>108931</v>
+        <v>654148</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1294</v>
       </c>
       <c r="N6" s="7">
-        <v>222164</v>
+        <v>1320541</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,10 +3726,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4320,10 +3741,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4335,10 +3756,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4352,7 +3773,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4364,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4379,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4394,115 +3815,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>5093</v>
+        <v>16424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>14262</v>
+        <v>34487</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M9" s="7">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N9" s="7">
-        <v>19356</v>
+        <v>50911</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>534</v>
+        <v>935</v>
       </c>
       <c r="D10" s="7">
-        <v>553161</v>
+        <v>1006007</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>539</v>
+        <v>946</v>
       </c>
       <c r="I10" s="7">
-        <v>545217</v>
+        <v>1008426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>1073</v>
+        <v>1881</v>
       </c>
       <c r="N10" s="7">
-        <v>1098377</v>
+        <v>2014433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4526,10 +3947,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4541,10 +3962,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4558,7 +3979,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4570,14 +3991,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -4585,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4600,115 +4021,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>16424</v>
+        <v>10476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>34487</v>
+        <v>22967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>50911</v>
+        <v>33443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>935</v>
+        <v>686</v>
       </c>
       <c r="D14" s="7">
-        <v>1006007</v>
+        <v>749076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>946</v>
+        <v>714</v>
       </c>
       <c r="I14" s="7">
-        <v>1008426</v>
+        <v>762044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>1881</v>
+        <v>1400</v>
       </c>
       <c r="N14" s="7">
-        <v>2014433</v>
+        <v>1511120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,10 +4138,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4732,10 +4153,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4747,10 +4168,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4764,7 +4185,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4776,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4791,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4806,115 +4227,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>10476</v>
+        <v>25756</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>22967</v>
+        <v>54794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N17" s="7">
-        <v>33443</v>
+        <v>80550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>686</v>
+        <v>907</v>
       </c>
       <c r="D18" s="7">
-        <v>749076</v>
+        <v>911811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>714</v>
+        <v>911</v>
       </c>
       <c r="I18" s="7">
-        <v>762044</v>
+        <v>988985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>1400</v>
+        <v>1818</v>
       </c>
       <c r="N18" s="7">
-        <v>1511120</v>
+        <v>1900796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,10 +4344,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4938,10 +4359,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4953,10 +4374,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4970,7 +4391,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4982,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4997,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5012,115 +4433,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7">
-        <v>25756</v>
+        <v>61063</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I21" s="7">
-        <v>54794</v>
+        <v>130939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="N21" s="7">
-        <v>80550</v>
+        <v>192002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>907</v>
+        <v>3172</v>
       </c>
       <c r="D22" s="7">
-        <v>911811</v>
+        <v>3333287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
-        <v>911</v>
+        <v>3221</v>
       </c>
       <c r="I22" s="7">
-        <v>988985</v>
+        <v>3413603</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>1818</v>
+        <v>6393</v>
       </c>
       <c r="N22" s="7">
-        <v>1900796</v>
+        <v>6746890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5144,10 +4565,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5159,10 +4580,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5175,222 +4596,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>59</v>
-      </c>
-      <c r="D25" s="7">
-        <v>61063</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="7">
-        <v>117</v>
-      </c>
-      <c r="I25" s="7">
-        <v>130939</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="7">
-        <v>176</v>
-      </c>
-      <c r="N25" s="7">
-        <v>192002</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3172</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3333287</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3221</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3413603</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6393</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6746890</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5403,8 +4617,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A911CDB-0DEA-4D50-BC51-546CDBFCC3EE}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450776D0-9875-499D-92BD-2CD5EEC6CF20}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5420,7 +4634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5527,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5542,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5557,115 +4771,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>831</v>
+        <v>15900</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>2707</v>
+        <v>17342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>3538</v>
+        <v>33242</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>715</v>
       </c>
       <c r="D6" s="7">
-        <v>101151</v>
+        <v>619541</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="H6" s="7">
-        <v>237</v>
+        <v>1204</v>
       </c>
       <c r="I6" s="7">
-        <v>128026</v>
+        <v>658410</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="M6" s="7">
-        <v>354</v>
+        <v>1919</v>
       </c>
       <c r="N6" s="7">
-        <v>229177</v>
+        <v>1277952</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -5689,10 +4903,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -5704,10 +4918,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -5721,7 +4935,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5733,13 +4947,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5748,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5763,115 +4977,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>16058</v>
+        <v>21454</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I9" s="7">
-        <v>15435</v>
+        <v>35464</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>31493</v>
+        <v>56918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>598</v>
+        <v>946</v>
       </c>
       <c r="D10" s="7">
-        <v>533765</v>
+        <v>1171410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>967</v>
+        <v>1462</v>
       </c>
       <c r="I10" s="7">
-        <v>577527</v>
+        <v>922642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>1565</v>
+        <v>2408</v>
       </c>
       <c r="N10" s="7">
-        <v>1111292</v>
+        <v>2094053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,10 +5094,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -5895,10 +5109,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -5910,10 +5124,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -5927,7 +5141,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5939,14 +5153,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5954,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5969,115 +5183,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>22223</v>
+        <v>26654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7">
+        <v>38742</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="7">
-        <v>38756</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>60979</v>
+        <v>65396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>946</v>
+        <v>656</v>
       </c>
       <c r="D14" s="7">
-        <v>1017025</v>
+        <v>678026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
-        <v>1462</v>
+        <v>999</v>
       </c>
       <c r="I14" s="7">
-        <v>1020718</v>
+        <v>894058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>2408</v>
+        <v>1655</v>
       </c>
       <c r="N14" s="7">
-        <v>2037743</v>
+        <v>1572084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6101,10 +5315,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6116,10 +5330,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1722</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1637480</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6133,7 +5347,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6145,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6160,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6175,115 +5389,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>27493</v>
+        <v>46916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>42603</v>
+        <v>53262</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>70095</v>
+        <v>100178</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>656</v>
+        <v>964</v>
       </c>
       <c r="D18" s="7">
-        <v>701279</v>
+        <v>879915</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H18" s="7">
-        <v>999</v>
+        <v>1488</v>
       </c>
       <c r="I18" s="7">
-        <v>831143</v>
+        <v>1040992</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
-        <v>1655</v>
+        <v>2452</v>
       </c>
       <c r="N18" s="7">
-        <v>1532423</v>
+        <v>1920907</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6307,10 +5521,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1046</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>873746</v>
+        <v>1094254</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6322,10 +5536,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1722</v>
+        <v>2567</v>
       </c>
       <c r="N19" s="7">
-        <v>1602518</v>
+        <v>2021085</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6339,7 +5553,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6351,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6366,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6381,115 +5595,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7">
-        <v>47943</v>
+        <v>110924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="I21" s="7">
-        <v>58917</v>
+        <v>144810</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="M21" s="7">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="N21" s="7">
-        <v>106860</v>
+        <v>255734</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>964</v>
+        <v>3281</v>
       </c>
       <c r="D22" s="7">
-        <v>917460</v>
+        <v>3348893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
-        <v>1488</v>
+        <v>5153</v>
       </c>
       <c r="I22" s="7">
-        <v>1090789</v>
+        <v>3516103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
-        <v>2452</v>
+        <v>8434</v>
       </c>
       <c r="N22" s="7">
-        <v>2008249</v>
+        <v>6864996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6513,10 +5727,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I23" s="7">
-        <v>1149706</v>
+        <v>3660913</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6528,10 +5742,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>2567</v>
+        <v>8738</v>
       </c>
       <c r="N23" s="7">
-        <v>2115109</v>
+        <v>7120730</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6544,222 +5758,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7">
-        <v>114547</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="7">
-        <v>209</v>
-      </c>
-      <c r="I25" s="7">
-        <v>158418</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M25" s="7">
-        <v>304</v>
-      </c>
-      <c r="N25" s="7">
-        <v>272965</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3281</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3270681</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5153</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3648204</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M26" s="7">
-        <v>8434</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6918885</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3806622</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8738</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7191850</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
